--- a/Files/Madden25/IE/Season9/RegressionValues.xlsx
+++ b/Files/Madden25/IE/Season9/RegressionValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden25/IE/Season9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="507" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3156365F-593D-44D8-A4FE-329F2B0F0BA5}"/>
+  <xr:revisionPtr revIDLastSave="515" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E70B248-92A2-4F56-ABD6-454AE7A13198}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1800" windowWidth="24675" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegressionValues" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RegressionValues!$A$1:$C$159</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -964,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2426,7 @@
         <v>28</v>
       </c>
       <c r="C131" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2424,7 +2437,7 @@
         <v>29</v>
       </c>
       <c r="C132" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2435,7 +2448,7 @@
         <v>30</v>
       </c>
       <c r="C133" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2446,7 +2459,7 @@
         <v>31</v>
       </c>
       <c r="C134" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2457,7 +2470,7 @@
         <v>32</v>
       </c>
       <c r="C135" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2468,7 +2481,7 @@
         <v>33</v>
       </c>
       <c r="C136" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2479,7 +2492,7 @@
         <v>34</v>
       </c>
       <c r="C137" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2490,7 +2503,7 @@
         <v>35</v>
       </c>
       <c r="C138" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
